--- a/AMS/controllers/courses.xlsx
+++ b/AMS/controllers/courses.xlsx
@@ -16,24 +16,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>course_name</t>
   </si>
   <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>CSE-4205</t>
+  </si>
+  <si>
+    <t>CSE-4207</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>CSE-4209</t>
+  </si>
+  <si>
+    <t>CSE-4203</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
+  </si>
+  <si>
     <t>course_code</t>
-  </si>
-  <si>
-    <t>CSE-jmdbdb</t>
-  </si>
-  <si>
-    <t>CSE-dddns</t>
-  </si>
-  <si>
-    <t>bsdjsds</t>
-  </si>
-  <si>
-    <t>sjhsdbdssd</t>
   </si>
 </sst>
 </file>
@@ -372,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -388,28 +400,41 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AMS/controllers/courses.xlsx
+++ b/AMS/controllers/courses.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>course_name</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>course_code</t>
+  </si>
+  <si>
+    <t>Algebra</t>
+  </si>
+  <si>
+    <t>CSE-1220</t>
   </si>
 </sst>
 </file>
@@ -384,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -436,6 +442,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
